--- a/Code/Results/Cases/Case_1_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2666734643501059</v>
+        <v>0.142321392454221</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.117117535010351</v>
+        <v>0.1263816796427193</v>
       </c>
       <c r="E2">
-        <v>0.1461105262000864</v>
+        <v>0.1492635381992038</v>
       </c>
       <c r="F2">
-        <v>1.423111420749095</v>
+        <v>2.039106289188112</v>
       </c>
       <c r="G2">
-        <v>1.078446625612159</v>
+        <v>1.373840508530236</v>
       </c>
       <c r="H2">
-        <v>0.6915838477384426</v>
+        <v>1.263369999138547</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2037065161417075</v>
+        <v>0.2019439887166499</v>
       </c>
       <c r="K2">
-        <v>2.732051620727162</v>
+        <v>1.059503800523885</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2330074923418266</v>
+        <v>0.1330042420125181</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1030657783581859</v>
+        <v>0.1230043056577728</v>
       </c>
       <c r="E3">
-        <v>0.1297477720060236</v>
+        <v>0.1458335090149347</v>
       </c>
       <c r="F3">
-        <v>1.331751299914004</v>
+        <v>2.032384371547067</v>
       </c>
       <c r="G3">
-        <v>1.006793161672832</v>
+        <v>1.367861571895276</v>
       </c>
       <c r="H3">
-        <v>0.6678137985025216</v>
+        <v>1.267010523859824</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1819044341400087</v>
+        <v>0.1977100304534503</v>
       </c>
       <c r="K3">
-        <v>2.367250274110319</v>
+        <v>0.9563608868237736</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2125331926929306</v>
+        <v>0.1273558660456899</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09451235736575825</v>
+        <v>0.1209730199446852</v>
       </c>
       <c r="E4">
-        <v>0.1198809721895415</v>
+        <v>0.1438026769056862</v>
       </c>
       <c r="F4">
-        <v>1.27885207211412</v>
+        <v>2.029533379137362</v>
       </c>
       <c r="G4">
-        <v>0.965596339940987</v>
+        <v>1.365185102181968</v>
       </c>
       <c r="H4">
-        <v>0.6547684272730123</v>
+        <v>1.269937368049696</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1688523549051268</v>
+        <v>0.1952319234243163</v>
       </c>
       <c r="K4">
-        <v>2.144715979560743</v>
+        <v>0.893245966995778</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2042340263301838</v>
+        <v>0.1250724214932291</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09104317846963994</v>
+        <v>0.1201559867123478</v>
       </c>
       <c r="E5">
-        <v>0.115900970120336</v>
+        <v>0.1429940104873602</v>
       </c>
       <c r="F5">
-        <v>1.258040931407209</v>
+        <v>2.028691802289856</v>
       </c>
       <c r="G5">
-        <v>0.9494592984385406</v>
+        <v>1.364343669667562</v>
       </c>
       <c r="H5">
-        <v>0.6498177902078197</v>
+        <v>1.271303719478766</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1636097466632975</v>
+        <v>0.1942525716327737</v>
       </c>
       <c r="K5">
-        <v>2.054327342194796</v>
+        <v>0.8675807508392381</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2028584842824444</v>
+        <v>0.1246943666990745</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09046805097992205</v>
+        <v>0.1200209689938063</v>
       </c>
       <c r="E6">
-        <v>0.1152424333901472</v>
+        <v>0.1428608744245921</v>
       </c>
       <c r="F6">
-        <v>1.254628676209734</v>
+        <v>2.028571379293382</v>
       </c>
       <c r="G6">
-        <v>0.9468175992332846</v>
+        <v>1.364218979579718</v>
       </c>
       <c r="H6">
-        <v>0.6490171376515264</v>
+        <v>1.271541080968433</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1627435988032957</v>
+        <v>0.1940917909191526</v>
       </c>
       <c r="K6">
-        <v>2.03933430224194</v>
+        <v>0.8633223758525617</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2124210946000176</v>
+        <v>0.1273249964113035</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09446550728380032</v>
+        <v>0.1209619576123089</v>
       </c>
       <c r="E7">
-        <v>0.11982713696856</v>
+        <v>0.1437916943640509</v>
       </c>
       <c r="F7">
-        <v>1.278568460163342</v>
+        <v>2.029520733704501</v>
       </c>
       <c r="G7">
-        <v>0.9653761413971012</v>
+        <v>1.365172746262701</v>
       </c>
       <c r="H7">
-        <v>0.6547002122820658</v>
+        <v>1.269955092435467</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1687813526729158</v>
+        <v>0.1952185921544043</v>
       </c>
       <c r="K7">
-        <v>2.143495857444549</v>
+        <v>0.8928996150539774</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2550213688460445</v>
+        <v>0.1390938771850898</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.112255600645895</v>
+        <v>0.1252083888545172</v>
       </c>
       <c r="E8">
-        <v>0.1404285000800414</v>
+        <v>0.1480652503470132</v>
       </c>
       <c r="F8">
-        <v>1.390910868610604</v>
+        <v>2.036523242811342</v>
       </c>
       <c r="G8">
-        <v>1.053126717263908</v>
+        <v>1.371572016876328</v>
       </c>
       <c r="H8">
-        <v>0.6830512335517511</v>
+        <v>1.264481564447209</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1961148052208301</v>
+        <v>0.2004588455962732</v>
       </c>
       <c r="K8">
-        <v>2.605922151303332</v>
+        <v>1.023895710135889</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3403760215644951</v>
+        <v>0.1627434781141233</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1478471470739038</v>
+        <v>0.1338702013345738</v>
       </c>
       <c r="E9">
-        <v>0.1824761961667605</v>
+        <v>0.1570431944190105</v>
       </c>
       <c r="F9">
-        <v>1.639420470295946</v>
+        <v>2.060417525360606</v>
       </c>
       <c r="G9">
-        <v>1.249998902479661</v>
+        <v>1.392054049768177</v>
       </c>
       <c r="H9">
-        <v>0.7521284616264552</v>
+        <v>1.259247833233559</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2527583064729129</v>
+        <v>0.2117034941033751</v>
       </c>
       <c r="K9">
-        <v>3.527776112308118</v>
+        <v>1.282479110133863</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4045791106554049</v>
+        <v>0.1804640725651723</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1746036321494131</v>
+        <v>0.1404359668794655</v>
       </c>
       <c r="E10">
-        <v>0.214711642652901</v>
+        <v>0.1640054435946467</v>
       </c>
       <c r="F10">
-        <v>1.843543132553222</v>
+        <v>2.084222417539209</v>
       </c>
       <c r="G10">
-        <v>1.413707357139259</v>
+        <v>1.411999279165087</v>
       </c>
       <c r="H10">
-        <v>0.8129097680544533</v>
+        <v>1.258774748130548</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.296825060138886</v>
+        <v>0.2205621039800576</v>
       </c>
       <c r="K10">
-        <v>4.219636024409169</v>
+        <v>1.473508568358454</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.434204924179852</v>
+        <v>0.1886001336739582</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1869520712386645</v>
+        <v>0.1434663899115947</v>
       </c>
       <c r="E11">
-        <v>0.2297523671947417</v>
+        <v>0.1672527382669671</v>
       </c>
       <c r="F11">
-        <v>1.94216707476329</v>
+        <v>2.09642109097588</v>
       </c>
       <c r="G11">
-        <v>1.493310004214919</v>
+        <v>1.422149612809136</v>
       </c>
       <c r="H11">
-        <v>0.8431917606278319</v>
+        <v>1.259296061740372</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3175533190484288</v>
+        <v>0.2247233203064667</v>
       </c>
       <c r="K11">
-        <v>4.538905413670534</v>
+        <v>1.560644644420677</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.445492234274397</v>
+        <v>0.1916917329911314</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1916576151339626</v>
+        <v>0.1446201596995422</v>
       </c>
       <c r="E12">
-        <v>0.2355099027128844</v>
+        <v>0.1684939483322907</v>
       </c>
       <c r="F12">
-        <v>1.980444331071695</v>
+        <v>2.101238266333837</v>
       </c>
       <c r="G12">
-        <v>1.524283784704011</v>
+        <v>1.426149187778066</v>
       </c>
       <c r="H12">
-        <v>0.8550797793816969</v>
+        <v>1.259599708212107</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3255145650396827</v>
+        <v>0.2263180602374888</v>
       </c>
       <c r="K12">
-        <v>4.660583806654415</v>
+        <v>1.593674645231033</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4430581159614775</v>
+        <v>0.1910254299825596</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1906428130357654</v>
+        <v>0.144371399269275</v>
       </c>
       <c r="E13">
-        <v>0.2342670268528551</v>
+        <v>0.1682261186123668</v>
       </c>
       <c r="F13">
-        <v>1.972157525663036</v>
+        <v>2.100191990677516</v>
       </c>
       <c r="G13">
-        <v>1.517574537073443</v>
+        <v>1.425280860152526</v>
       </c>
       <c r="H13">
-        <v>0.852500038299695</v>
+        <v>1.259529582411858</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3237947549709759</v>
+        <v>0.2259737590780304</v>
       </c>
       <c r="K13">
-        <v>4.634341439710454</v>
+        <v>1.586559562333377</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4351321116294429</v>
+        <v>0.1888542686470771</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1873385841369526</v>
+        <v>0.1435611870327591</v>
       </c>
       <c r="E14">
-        <v>0.2302247542288711</v>
+        <v>0.1673546222428541</v>
       </c>
       <c r="F14">
-        <v>1.94529690032897</v>
+        <v>2.096813433806176</v>
       </c>
       <c r="G14">
-        <v>1.495841037753564</v>
+        <v>1.422475530928949</v>
       </c>
       <c r="H14">
-        <v>0.8441611006794005</v>
+        <v>1.259318911912544</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3182059682629017</v>
+        <v>0.2248541396966317</v>
       </c>
       <c r="K14">
-        <v>4.548899608195654</v>
+        <v>1.563361374368128</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.430286406142514</v>
+        <v>0.1875257530533361</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1853186119117112</v>
+        <v>0.1430657162167535</v>
       </c>
       <c r="E15">
-        <v>0.2277570568596303</v>
+        <v>0.1668223073310315</v>
       </c>
       <c r="F15">
-        <v>1.928968360219841</v>
+        <v>2.094769754907091</v>
       </c>
       <c r="G15">
-        <v>1.482639637244802</v>
+        <v>1.420777512742944</v>
       </c>
       <c r="H15">
-        <v>0.8391094086273938</v>
+        <v>1.259203714950871</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3147976841552094</v>
+        <v>0.224170814450801</v>
       </c>
       <c r="K15">
-        <v>4.496669295686559</v>
+        <v>1.549156158944868</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4026521315517044</v>
+        <v>0.1799338584611405</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1738005254827044</v>
+        <v>0.1402387943827392</v>
       </c>
       <c r="E16">
-        <v>0.21373692147192</v>
+        <v>0.1637948383080428</v>
       </c>
       <c r="F16">
-        <v>1.837222285418605</v>
+        <v>2.083452839273235</v>
       </c>
       <c r="G16">
-        <v>1.408616038496888</v>
+        <v>1.411357688920987</v>
       </c>
       <c r="H16">
-        <v>0.8109872552246884</v>
+        <v>1.258755527521714</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2954852927969256</v>
+        <v>0.2202928097580354</v>
       </c>
       <c r="K16">
-        <v>4.198872753965759</v>
+        <v>1.467818727030703</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3858125497303746</v>
+        <v>0.1752955704709365</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1667825727293604</v>
+        <v>0.1385157003121549</v>
       </c>
       <c r="E17">
-        <v>0.205237773745651</v>
+        <v>0.1619581127508667</v>
       </c>
       <c r="F17">
-        <v>1.782484877966013</v>
+        <v>2.07686168940586</v>
       </c>
       <c r="G17">
-        <v>1.364581625775457</v>
+        <v>1.405855505696309</v>
       </c>
       <c r="H17">
-        <v>0.7944381514927557</v>
+        <v>1.258669450733464</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2838218389969853</v>
+        <v>0.2179474910036419</v>
       </c>
       <c r="K17">
-        <v>4.017431651162894</v>
+        <v>1.4179809170368</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3761658136650539</v>
+        <v>0.1726348043534074</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.162762405869131</v>
+        <v>0.1375287316472793</v>
       </c>
       <c r="E18">
-        <v>0.2003842301061241</v>
+        <v>0.1609092187711099</v>
       </c>
       <c r="F18">
-        <v>1.751537576776769</v>
+        <v>2.073199507298995</v>
       </c>
       <c r="G18">
-        <v>1.33973106573427</v>
+        <v>1.402792123534226</v>
       </c>
       <c r="H18">
-        <v>0.7851645155541007</v>
+        <v>1.258689247033885</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2771766182032991</v>
+        <v>0.2166108876818811</v>
       </c>
       <c r="K18">
-        <v>3.913490470892327</v>
+        <v>1.389337748439402</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3729060413234606</v>
+        <v>0.1717351298534737</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1614039424159159</v>
+        <v>0.1371952686262574</v>
       </c>
       <c r="E19">
-        <v>0.1987466810255114</v>
+        <v>0.1605553764336634</v>
       </c>
       <c r="F19">
-        <v>1.741148537560861</v>
+        <v>2.071981663890213</v>
       </c>
       <c r="G19">
-        <v>1.331396345751301</v>
+        <v>1.401772288620919</v>
       </c>
       <c r="H19">
-        <v>0.7820654778656149</v>
+        <v>1.25870784310942</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2749371331972696</v>
+        <v>0.216160457410453</v>
       </c>
       <c r="K19">
-        <v>3.878366129008953</v>
+        <v>1.379643494426773</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3876010631278177</v>
+        <v>0.1757885948855744</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1675279232247959</v>
+        <v>0.1386987017307746</v>
       </c>
       <c r="E20">
-        <v>0.2061388524983059</v>
+        <v>0.1621528547065978</v>
       </c>
       <c r="F20">
-        <v>1.788255574444889</v>
+        <v>2.077549984663278</v>
       </c>
       <c r="G20">
-        <v>1.369219173610929</v>
+        <v>1.406430728420105</v>
       </c>
       <c r="H20">
-        <v>0.7961741858221956</v>
+        <v>1.25867143858602</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.285056787920098</v>
+        <v>0.2181958741644792</v>
       </c>
       <c r="K20">
-        <v>4.036702142999388</v>
+        <v>1.42328394048036</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4374582378283378</v>
+        <v>0.1894917032676204</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1883082824801505</v>
+        <v>0.143798997812425</v>
       </c>
       <c r="E21">
-        <v>0.2314103205405615</v>
+        <v>0.1676102888689144</v>
       </c>
       <c r="F21">
-        <v>1.953160402594094</v>
+        <v>2.097800422833444</v>
       </c>
       <c r="G21">
-        <v>1.502201383097713</v>
+        <v>1.423295286263993</v>
       </c>
       <c r="H21">
-        <v>0.8465986653481821</v>
+        <v>1.25937790511577</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3198443756785423</v>
+        <v>0.2251824833282114</v>
       </c>
       <c r="K21">
-        <v>4.573973762093431</v>
+        <v>1.570174339876019</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4704473819522974</v>
+        <v>0.1985094963958005</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2020633430719556</v>
+        <v>0.147168531753934</v>
       </c>
       <c r="E22">
-        <v>0.2482919470387515</v>
+        <v>0.171244247465026</v>
       </c>
       <c r="F22">
-        <v>2.066414101824918</v>
+        <v>2.112188592585099</v>
       </c>
       <c r="G22">
-        <v>1.594001026262617</v>
+        <v>1.435226197173108</v>
       </c>
       <c r="H22">
-        <v>0.882030346913325</v>
+        <v>1.260459001259079</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3432398787904702</v>
+        <v>0.229859292101068</v>
       </c>
       <c r="K22">
-        <v>4.929715209953429</v>
+        <v>1.666370546458495</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4528004853530234</v>
+        <v>0.1936908942986975</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1947046490265478</v>
+        <v>0.1453668552494776</v>
       </c>
       <c r="E23">
-        <v>0.2392456912833154</v>
+        <v>0.1692985830822238</v>
       </c>
       <c r="F23">
-        <v>2.005430792135172</v>
+        <v>2.104403546224859</v>
       </c>
       <c r="G23">
-        <v>1.544525416623287</v>
+        <v>1.428774954901854</v>
       </c>
       <c r="H23">
-        <v>0.8628779611659354</v>
+        <v>1.259825218493802</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3306879151515574</v>
+        <v>0.2273530382251892</v>
       </c>
       <c r="K23">
-        <v>4.739382942652185</v>
+        <v>1.61501113494711</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3867923691831407</v>
+        <v>0.1755656803253629</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1671909052529514</v>
+        <v>0.1386159553819084</v>
       </c>
       <c r="E24">
-        <v>0.2057313734261399</v>
+        <v>0.1620647898664629</v>
       </c>
       <c r="F24">
-        <v>1.785645024276235</v>
+        <v>2.077238410356316</v>
       </c>
       <c r="G24">
-        <v>1.367121095427365</v>
+        <v>1.406170359133569</v>
       </c>
       <c r="H24">
-        <v>0.7953885782316945</v>
+        <v>1.258670324089252</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.284498280859637</v>
+        <v>0.2180835435402884</v>
       </c>
       <c r="K24">
-        <v>4.027988805091354</v>
+        <v>1.420886414731285</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3170528645097193</v>
+        <v>0.1562848090735827</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.13812587540842</v>
+        <v>0.1314913476145989</v>
       </c>
       <c r="E25">
-        <v>0.1708916992084255</v>
+        <v>0.1545502623181818</v>
       </c>
       <c r="F25">
-        <v>1.568748128507707</v>
+        <v>2.052859918908155</v>
       </c>
       <c r="G25">
-        <v>1.193699939306754</v>
+        <v>1.385657546078264</v>
       </c>
       <c r="H25">
-        <v>0.7318213058937317</v>
+        <v>1.260072915470275</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2370508772232682</v>
+        <v>0.2085571397841335</v>
       </c>
       <c r="K25">
-        <v>3.2762541581601</v>
+        <v>1.21234230113015</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.142321392454221</v>
+        <v>0.2666734643500916</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1263816796427193</v>
+        <v>0.1171175350104647</v>
       </c>
       <c r="E2">
-        <v>0.1492635381992038</v>
+        <v>0.146110526200097</v>
       </c>
       <c r="F2">
-        <v>2.039106289188112</v>
+        <v>1.42311142074908</v>
       </c>
       <c r="G2">
-        <v>1.373840508530236</v>
+        <v>1.078446625612159</v>
       </c>
       <c r="H2">
-        <v>1.263369999138547</v>
+        <v>0.6915838477384284</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2019439887166499</v>
+        <v>0.2037065161417075</v>
       </c>
       <c r="K2">
-        <v>1.059503800523885</v>
+        <v>2.732051620727276</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1330042420125181</v>
+        <v>0.2330074923418408</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1230043056577728</v>
+        <v>0.1030657783581859</v>
       </c>
       <c r="E3">
-        <v>0.1458335090149347</v>
+        <v>0.1297477720060165</v>
       </c>
       <c r="F3">
-        <v>2.032384371547067</v>
+        <v>1.331751299913989</v>
       </c>
       <c r="G3">
-        <v>1.367861571895276</v>
+        <v>1.006793161672846</v>
       </c>
       <c r="H3">
-        <v>1.267010523859824</v>
+        <v>0.6678137985025216</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1977100304534503</v>
+        <v>0.1819044341399447</v>
       </c>
       <c r="K3">
-        <v>0.9563608868237736</v>
+        <v>2.367250274110148</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1273558660456899</v>
+        <v>0.2125331926929448</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1209730199446852</v>
+        <v>0.09451235736575825</v>
       </c>
       <c r="E4">
-        <v>0.1438026769056862</v>
+        <v>0.1198809721895522</v>
       </c>
       <c r="F4">
-        <v>2.029533379137362</v>
+        <v>1.278852072114091</v>
       </c>
       <c r="G4">
-        <v>1.365185102181968</v>
+        <v>0.9655963399410581</v>
       </c>
       <c r="H4">
-        <v>1.269937368049696</v>
+        <v>0.6547684272729128</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1952319234243163</v>
+        <v>0.1688523549051553</v>
       </c>
       <c r="K4">
-        <v>0.893245966995778</v>
+        <v>2.1447159795608</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1250724214932291</v>
+        <v>0.2042340263301554</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1201559867123478</v>
+        <v>0.09104317846973942</v>
       </c>
       <c r="E5">
-        <v>0.1429940104873602</v>
+        <v>0.1159009701203217</v>
       </c>
       <c r="F5">
-        <v>2.028691802289856</v>
+        <v>1.258040931407194</v>
       </c>
       <c r="G5">
-        <v>1.364343669667562</v>
+        <v>0.9494592984385406</v>
       </c>
       <c r="H5">
-        <v>1.271303719478766</v>
+        <v>0.6498177902077202</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1942525716327737</v>
+        <v>0.163609746663262</v>
       </c>
       <c r="K5">
-        <v>0.8675807508392381</v>
+        <v>2.054327342194796</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1246943666990745</v>
+        <v>0.2028584842823449</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1200209689938063</v>
+        <v>0.09046805097991495</v>
       </c>
       <c r="E6">
-        <v>0.1428608744245921</v>
+        <v>0.115242433390133</v>
       </c>
       <c r="F6">
-        <v>2.028571379293382</v>
+        <v>1.254628676209705</v>
       </c>
       <c r="G6">
-        <v>1.364218979579718</v>
+        <v>0.9468175992332561</v>
       </c>
       <c r="H6">
-        <v>1.271541080968433</v>
+        <v>0.64901713765164</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1940917909191526</v>
+        <v>0.1627435988032317</v>
       </c>
       <c r="K6">
-        <v>0.8633223758525617</v>
+        <v>2.03933430224194</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1273249964113035</v>
+        <v>0.2124210946000176</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1209619576123089</v>
+        <v>0.09446550728391401</v>
       </c>
       <c r="E7">
-        <v>0.1437916943640509</v>
+        <v>0.1198271369685564</v>
       </c>
       <c r="F7">
-        <v>2.029520733704501</v>
+        <v>1.278568460163342</v>
       </c>
       <c r="G7">
-        <v>1.365172746262701</v>
+        <v>0.9653761413971722</v>
       </c>
       <c r="H7">
-        <v>1.269955092435467</v>
+        <v>0.6547002122819663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1952185921544043</v>
+        <v>0.1687813526729087</v>
       </c>
       <c r="K7">
-        <v>0.8928996150539774</v>
+        <v>2.143495857444435</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390938771850898</v>
+        <v>0.2550213688460445</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1252083888545172</v>
+        <v>0.1122556006455966</v>
       </c>
       <c r="E8">
-        <v>0.1480652503470132</v>
+        <v>0.1404285000800414</v>
       </c>
       <c r="F8">
-        <v>2.036523242811342</v>
+        <v>1.390910868610604</v>
       </c>
       <c r="G8">
-        <v>1.371572016876328</v>
+        <v>1.053126717263993</v>
       </c>
       <c r="H8">
-        <v>1.264481564447209</v>
+        <v>0.6830512335516659</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2004588455962732</v>
+        <v>0.1961148052207733</v>
       </c>
       <c r="K8">
-        <v>1.023895710135889</v>
+        <v>2.605922151303218</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1627434781141233</v>
+        <v>0.340376021564623</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1338702013345738</v>
+        <v>0.1478471470739038</v>
       </c>
       <c r="E9">
-        <v>0.1570431944190105</v>
+        <v>0.1824761961667747</v>
       </c>
       <c r="F9">
-        <v>2.060417525360606</v>
+        <v>1.639420470295946</v>
       </c>
       <c r="G9">
-        <v>1.392054049768177</v>
+        <v>1.249998902479661</v>
       </c>
       <c r="H9">
-        <v>1.259247833233559</v>
+        <v>0.7521284616264552</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2117034941033751</v>
+        <v>0.2527583064729129</v>
       </c>
       <c r="K9">
-        <v>1.282479110133863</v>
+        <v>3.527776112308061</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1804640725651723</v>
+        <v>0.4045791106554901</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1404359668794655</v>
+        <v>0.1746036321496831</v>
       </c>
       <c r="E10">
-        <v>0.1640054435946467</v>
+        <v>0.2147116426528655</v>
       </c>
       <c r="F10">
-        <v>2.084222417539209</v>
+        <v>1.843543132553222</v>
       </c>
       <c r="G10">
-        <v>1.411999279165087</v>
+        <v>1.413707357139231</v>
       </c>
       <c r="H10">
-        <v>1.258774748130548</v>
+        <v>0.8129097680545385</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2205621039800576</v>
+        <v>0.2968250601388576</v>
       </c>
       <c r="K10">
-        <v>1.473508568358454</v>
+        <v>4.219636024409226</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1886001336739582</v>
+        <v>0.4342049241798236</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1434663899115947</v>
+        <v>0.1869520712386645</v>
       </c>
       <c r="E11">
-        <v>0.1672527382669671</v>
+        <v>0.2297523671947488</v>
       </c>
       <c r="F11">
-        <v>2.09642109097588</v>
+        <v>1.94216707476329</v>
       </c>
       <c r="G11">
-        <v>1.422149612809136</v>
+        <v>1.493310004214862</v>
       </c>
       <c r="H11">
-        <v>1.259296061740372</v>
+        <v>0.8431917606278319</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2247233203064667</v>
+        <v>0.3175533190484288</v>
       </c>
       <c r="K11">
-        <v>1.560644644420677</v>
+        <v>4.538905413670591</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1916917329911314</v>
+        <v>0.4454922342744396</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1446201596995422</v>
+        <v>0.1916576151340621</v>
       </c>
       <c r="E12">
-        <v>0.1684939483322907</v>
+        <v>0.2355099027128347</v>
       </c>
       <c r="F12">
-        <v>2.101238266333837</v>
+        <v>1.980444331071638</v>
       </c>
       <c r="G12">
-        <v>1.426149187778066</v>
+        <v>1.524283784704039</v>
       </c>
       <c r="H12">
-        <v>1.259599708212107</v>
+        <v>0.8550797793817253</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2263180602374888</v>
+        <v>0.3255145650395832</v>
       </c>
       <c r="K12">
-        <v>1.593674645231033</v>
+        <v>4.660583806654358</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1910254299825596</v>
+        <v>0.4430581159614491</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.144371399269275</v>
+        <v>0.1906428130356659</v>
       </c>
       <c r="E13">
-        <v>0.1682261186123668</v>
+        <v>0.2342670268528622</v>
       </c>
       <c r="F13">
-        <v>2.100191990677516</v>
+        <v>1.972157525663036</v>
       </c>
       <c r="G13">
-        <v>1.425280860152526</v>
+        <v>1.517574537073386</v>
       </c>
       <c r="H13">
-        <v>1.259529582411858</v>
+        <v>0.8525000382996666</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2259737590780304</v>
+        <v>0.3237947549710043</v>
       </c>
       <c r="K13">
-        <v>1.586559562333377</v>
+        <v>4.634341439710397</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1888542686470771</v>
+        <v>0.4351321116294571</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1435611870327591</v>
+        <v>0.18733858413691</v>
       </c>
       <c r="E14">
-        <v>0.1673546222428541</v>
+        <v>0.2302247542288782</v>
       </c>
       <c r="F14">
-        <v>2.096813433806176</v>
+        <v>1.945296900328955</v>
       </c>
       <c r="G14">
-        <v>1.422475530928949</v>
+        <v>1.495841037753536</v>
       </c>
       <c r="H14">
-        <v>1.259318911912544</v>
+        <v>0.8441611006794858</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2248541396966317</v>
+        <v>0.3182059682628591</v>
       </c>
       <c r="K14">
-        <v>1.563361374368128</v>
+        <v>4.548899608195541</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1875257530533361</v>
+        <v>0.430286406142514</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1430657162167535</v>
+        <v>0.1853186119117112</v>
       </c>
       <c r="E15">
-        <v>0.1668223073310315</v>
+        <v>0.2277570568596232</v>
       </c>
       <c r="F15">
-        <v>2.094769754907091</v>
+        <v>1.928968360219827</v>
       </c>
       <c r="G15">
-        <v>1.420777512742944</v>
+        <v>1.482639637244887</v>
       </c>
       <c r="H15">
-        <v>1.259203714950871</v>
+        <v>0.8391094086275075</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.224170814450801</v>
+        <v>0.3147976841551667</v>
       </c>
       <c r="K15">
-        <v>1.549156158944868</v>
+        <v>4.496669295686445</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1799338584611405</v>
+        <v>0.4026521315516618</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1402387943827392</v>
+        <v>0.1738005254828039</v>
       </c>
       <c r="E16">
-        <v>0.1637948383080428</v>
+        <v>0.2137369214719271</v>
       </c>
       <c r="F16">
-        <v>2.083452839273235</v>
+        <v>1.837222285418619</v>
       </c>
       <c r="G16">
-        <v>1.411357688920987</v>
+        <v>1.408616038496916</v>
       </c>
       <c r="H16">
-        <v>1.258755527521714</v>
+        <v>0.8109872552246884</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2202928097580354</v>
+        <v>0.2954852927969824</v>
       </c>
       <c r="K16">
-        <v>1.467818727030703</v>
+        <v>4.198872753965702</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1752955704709365</v>
+        <v>0.3858125497304883</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1385157003121549</v>
+        <v>0.1667825727293319</v>
       </c>
       <c r="E17">
-        <v>0.1619581127508667</v>
+        <v>0.2052377737456581</v>
       </c>
       <c r="F17">
-        <v>2.07686168940586</v>
+        <v>1.782484877966027</v>
       </c>
       <c r="G17">
-        <v>1.405855505696309</v>
+        <v>1.364581625775429</v>
       </c>
       <c r="H17">
-        <v>1.258669450733464</v>
+        <v>0.794438151492642</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2179474910036419</v>
+        <v>0.2838218389969853</v>
       </c>
       <c r="K17">
-        <v>1.4179809170368</v>
+        <v>4.017431651163008</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1726348043534074</v>
+        <v>0.3761658136648975</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1375287316472793</v>
+        <v>0.1627624058692447</v>
       </c>
       <c r="E18">
-        <v>0.1609092187711099</v>
+        <v>0.2003842301061525</v>
       </c>
       <c r="F18">
-        <v>2.073199507298995</v>
+        <v>1.751537576776755</v>
       </c>
       <c r="G18">
-        <v>1.402792123534226</v>
+        <v>1.33973106573427</v>
       </c>
       <c r="H18">
-        <v>1.258689247033885</v>
+        <v>0.7851645155541007</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2166108876818811</v>
+        <v>0.2771766182031854</v>
       </c>
       <c r="K18">
-        <v>1.389337748439402</v>
+        <v>3.913490470892214</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1717351298534737</v>
+        <v>0.3729060413234464</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1371952686262574</v>
+        <v>0.1614039424158449</v>
       </c>
       <c r="E19">
-        <v>0.1605553764336634</v>
+        <v>0.1987466810255327</v>
       </c>
       <c r="F19">
-        <v>2.071981663890213</v>
+        <v>1.741148537560861</v>
       </c>
       <c r="G19">
-        <v>1.401772288620919</v>
+        <v>1.331396345751301</v>
       </c>
       <c r="H19">
-        <v>1.25870784310942</v>
+        <v>0.7820654778656149</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.216160457410453</v>
+        <v>0.2749371331972696</v>
       </c>
       <c r="K19">
-        <v>1.379643494426773</v>
+        <v>3.878366129009066</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1757885948855744</v>
+        <v>0.387601063127704</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1386987017307746</v>
+        <v>0.167527923224668</v>
       </c>
       <c r="E20">
-        <v>0.1621528547065978</v>
+        <v>0.2061388524982917</v>
       </c>
       <c r="F20">
-        <v>2.077549984663278</v>
+        <v>1.788255574444889</v>
       </c>
       <c r="G20">
-        <v>1.406430728420105</v>
+        <v>1.369219173610844</v>
       </c>
       <c r="H20">
-        <v>1.25867143858602</v>
+        <v>0.7961741858221956</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2181958741644792</v>
+        <v>0.2850567879200838</v>
       </c>
       <c r="K20">
-        <v>1.42328394048036</v>
+        <v>4.036702142999331</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1894917032676204</v>
+        <v>0.4374582378283236</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.143798997812425</v>
+        <v>0.1883082824801505</v>
       </c>
       <c r="E21">
-        <v>0.1676102888689144</v>
+        <v>0.2314103205405118</v>
       </c>
       <c r="F21">
-        <v>2.097800422833444</v>
+        <v>1.953160402594108</v>
       </c>
       <c r="G21">
-        <v>1.423295286263993</v>
+        <v>1.502201383097713</v>
       </c>
       <c r="H21">
-        <v>1.25937790511577</v>
+        <v>0.8465986653482105</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2251824833282114</v>
+        <v>0.3198443756786276</v>
       </c>
       <c r="K21">
-        <v>1.570174339876019</v>
+        <v>4.573973762093317</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1985094963958005</v>
+        <v>0.4704473819524395</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.147168531753934</v>
+        <v>0.202063343071714</v>
       </c>
       <c r="E22">
-        <v>0.171244247465026</v>
+        <v>0.2482919470388083</v>
       </c>
       <c r="F22">
-        <v>2.112188592585099</v>
+        <v>2.066414101824918</v>
       </c>
       <c r="G22">
-        <v>1.435226197173108</v>
+        <v>1.594001026262617</v>
       </c>
       <c r="H22">
-        <v>1.260459001259079</v>
+        <v>0.8820303469131829</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.229859292101068</v>
+        <v>0.343239878790456</v>
       </c>
       <c r="K22">
-        <v>1.666370546458495</v>
+        <v>4.929715209953486</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1936908942986975</v>
+        <v>0.4528004853531513</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1453668552494776</v>
+        <v>0.1947046490265478</v>
       </c>
       <c r="E23">
-        <v>0.1692985830822238</v>
+        <v>0.2392456912833225</v>
       </c>
       <c r="F23">
-        <v>2.104403546224859</v>
+        <v>2.005430792135172</v>
       </c>
       <c r="G23">
-        <v>1.428774954901854</v>
+        <v>1.54452541662323</v>
       </c>
       <c r="H23">
-        <v>1.259825218493802</v>
+        <v>0.8628779611658217</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2273530382251892</v>
+        <v>0.3306879151515432</v>
       </c>
       <c r="K23">
-        <v>1.61501113494711</v>
+        <v>4.739382942652071</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1755656803253629</v>
+        <v>0.3867923691831407</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1386159553819084</v>
+        <v>0.1671909052529799</v>
       </c>
       <c r="E24">
-        <v>0.1620647898664629</v>
+        <v>0.2057313734261399</v>
       </c>
       <c r="F24">
-        <v>2.077238410356316</v>
+        <v>1.785645024276235</v>
       </c>
       <c r="G24">
-        <v>1.406170359133569</v>
+        <v>1.367121095427365</v>
       </c>
       <c r="H24">
-        <v>1.258670324089252</v>
+        <v>0.7953885782316945</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2180835435402884</v>
+        <v>0.284498280859637</v>
       </c>
       <c r="K24">
-        <v>1.420886414731285</v>
+        <v>4.027988805091411</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1562848090735827</v>
+        <v>0.317052864509634</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1314913476145989</v>
+        <v>0.1381258754085195</v>
       </c>
       <c r="E25">
-        <v>0.1545502623181818</v>
+        <v>0.1708916992084539</v>
       </c>
       <c r="F25">
-        <v>2.052859918908155</v>
+        <v>1.568748128507679</v>
       </c>
       <c r="G25">
-        <v>1.385657546078264</v>
+        <v>1.193699939306725</v>
       </c>
       <c r="H25">
-        <v>1.260072915470275</v>
+        <v>0.7318213058938454</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2085571397841335</v>
+        <v>0.2370508772232256</v>
       </c>
       <c r="K25">
-        <v>1.21234230113015</v>
+        <v>3.276254158160043</v>
       </c>
       <c r="L25">
         <v>0</v>
